--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\unal\Computacion grafica\Projecto cajas\Modelado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F42C4-B780-4CB4-B8E8-343C7F3EF03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA81711-CC74-4EF0-BC27-049A58B83007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1320" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
